--- a/LTspice_simulation/SMX_simulation_v3_frequency_response.xlsx
+++ b/LTspice_simulation/SMX_simulation_v3_frequency_response.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vangi\Desktop\soil sensor\555_timer_in_LT_Spice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\_GitHub_repo\PCB-resistive-AC-soil-moisture-sensor\LTspice_simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4759787-66D6-4E85-89DA-5284BFDB6382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948350B6-715C-448C-A629-2F8D8212A375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6456" yWindow="5208" windowWidth="20928" windowHeight="12456" xr2:uid="{DDB1F1A9-15E0-41F6-8508-D1E3FD3DE3A6}"/>
+    <workbookView xWindow="5532" yWindow="3516" windowWidth="20928" windowHeight="14100" xr2:uid="{DDB1F1A9-15E0-41F6-8508-D1E3FD3DE3A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$O$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$W$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>VDD</t>
   </si>
@@ -47,6 +47,15 @@
   <si>
     <t>R (Ohm)</t>
   </si>
+  <si>
+    <t>5 V</t>
+  </si>
+  <si>
+    <t>3.3 V</t>
+  </si>
+  <si>
+    <t>LTspice simulation</t>
+  </si>
 </sst>
 </file>
 
@@ -55,7 +64,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.E+00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +80,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -81,7 +98,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -225,13 +242,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -243,14 +254,23 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -373,7 +393,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$20</c:f>
+              <c:f>Sheet1!$A$6:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>0.E+00</c:formatCode>
                 <c:ptCount val="17"/>
@@ -433,9 +453,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$20</c:f>
+              <c:f>Sheet1!$B$6:$B$22</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>18032</c:v>
@@ -582,7 +602,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$12:$A$16</c:f>
+              <c:f>Sheet1!$A$14:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>0.E+00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -606,9 +626,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$B$16</c:f>
+              <c:f>Sheet1!$B$14:$B$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>5172</c:v>
@@ -843,7 +863,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -1040,9 +1060,9 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$20</c:f>
+              <c:f>Sheet1!$B$6:$B$22</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>18032</c:v>
@@ -1100,7 +1120,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$20</c:f>
+              <c:f>Sheet1!$A$6:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>0.E+00</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1249,9 +1269,9 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$B$16</c:f>
+              <c:f>Sheet1!$B$14:$B$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>5172</c:v>
@@ -1273,7 +1293,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$A$12:$A$16</c:f>
+              <c:f>Sheet1!$A$14:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>0.E+00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1391,7 +1411,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -2721,15 +2741,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2756,16 +2776,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3095,235 +3115,243 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+      <selection sqref="A1:W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="8.88671875" style="2"/>
+    <col min="1" max="2" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="2.21875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="2.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1">
-        <v>3.3</v>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="B4" s="10">
-        <v>18032</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="E4" s="10">
-        <v>18022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="B5" s="4">
-        <v>18029</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4">
-        <v>17993</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
+      <c r="A6" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="B6" s="9">
+        <v>18032</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>18022</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4">
-        <v>17904</v>
+        <v>0.3</v>
+      </c>
+      <c r="B7" s="10">
+        <v>18029</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4">
-        <v>17596</v>
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>17993</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>30</v>
-      </c>
-      <c r="B9" s="4">
-        <v>16777</v>
+        <v>3</v>
+      </c>
+      <c r="B9" s="10">
+        <v>17904</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>100</v>
-      </c>
-      <c r="B10" s="4">
-        <v>14427</v>
+        <v>10</v>
+      </c>
+      <c r="B10" s="10">
+        <v>17596</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>300</v>
-      </c>
-      <c r="B11" s="4">
-        <v>10308</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="10">
+        <v>16777</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
-        <v>1000</v>
-      </c>
-      <c r="B12" s="12">
-        <v>5172</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E12" s="4">
-        <v>5168</v>
-      </c>
+      <c r="A12" s="3">
+        <v>100</v>
+      </c>
+      <c r="B12" s="10">
+        <v>14427</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
-        <v>3000</v>
-      </c>
-      <c r="B13" s="12">
-        <v>2156</v>
+      <c r="A13" s="3">
+        <v>300</v>
+      </c>
+      <c r="B13" s="10">
+        <v>10308</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
-        <v>10000</v>
-      </c>
-      <c r="B14" s="12">
-        <v>737</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
+      <c r="A14" s="8">
+        <v>1000</v>
+      </c>
+      <c r="B14" s="11">
+        <v>5172</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="10">
+        <v>5168</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
-        <v>30000</v>
-      </c>
-      <c r="B15" s="12">
-        <v>284</v>
+      <c r="A15" s="8">
+        <v>3000</v>
+      </c>
+      <c r="B15" s="11">
+        <v>2156</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
-        <v>100000</v>
-      </c>
-      <c r="B16" s="12">
-        <v>120</v>
-      </c>
-      <c r="D16" s="3">
-        <v>100000</v>
-      </c>
-      <c r="E16" s="4">
-        <v>120</v>
-      </c>
+      <c r="A16" s="8">
+        <v>10000</v>
+      </c>
+      <c r="B16" s="11">
+        <v>737</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>300000</v>
-      </c>
-      <c r="B17" s="4">
-        <v>72</v>
+      <c r="A17" s="8">
+        <v>30000</v>
+      </c>
+      <c r="B17" s="11">
+        <v>284</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="B18" s="4">
-        <v>55.2</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
+      <c r="A18" s="8">
+        <v>100000</v>
+      </c>
+      <c r="B18" s="11">
+        <v>120</v>
+      </c>
+      <c r="D18" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E18" s="10">
+        <v>120</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
+        <v>300000</v>
+      </c>
+      <c r="B19" s="10">
+        <v>72</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B20" s="10">
+        <v>55.2</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
         <v>3000000</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B21" s="10">
         <v>50.4</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="10"/>
     </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
         <v>10000000</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B22" s="12">
         <v>48.7</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D22" s="4">
         <v>10000000</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E22" s="12">
         <v>48.7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>